--- a/customers_db.xlsx
+++ b/customers_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C2181-63A9-416E-9B68-AA737E6CF05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1909C-F113-4DDE-B463-31B7CA9FC86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>customer_id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>join_date</t>
   </si>
   <si>
-    <t>customer_status</t>
-  </si>
-  <si>
     <t>deposit</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>John</t>
   </si>
   <si>
-    <t>Borrow</t>
-  </si>
-  <si>
     <t>user_name</t>
   </si>
   <si>
@@ -129,6 +123,9 @@
   </si>
   <si>
     <t>jshen1</t>
+  </si>
+  <si>
+    <t>cup_rental</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,22 +508,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -534,31 +531,25 @@
         <v>14045</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1">
-        <v>44782</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>44866</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -566,22 +557,25 @@
         <v>14046</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>44901</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -589,22 +583,28 @@
         <v>14047</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>44846</v>
       </c>
+      <c r="E4">
+        <v>989967</v>
+      </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -612,22 +612,25 @@
         <v>14048</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>44849</v>
       </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -635,22 +638,28 @@
         <v>14049</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>44834</v>
       </c>
+      <c r="E6">
+        <v>989969</v>
+      </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
